--- a/Eco shelter project/Light Permeablity.xlsx
+++ b/Eco shelter project/Light Permeablity.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="12">
   <si>
     <t>side</t>
   </si>
@@ -54,6 +54,12 @@
   </si>
   <si>
     <t>canvas</t>
+  </si>
+  <si>
+    <t>nursery</t>
+  </si>
+  <si>
+    <t>east</t>
   </si>
 </sst>
 </file>
@@ -380,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -600,6 +606,138 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30">
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <v>0.32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
